--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_General.xlsx
@@ -49,16 +49,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>DeepAR</t>
   </si>
   <si>
-    <t>MCPS</t>
-  </si>
-  <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5800196476824288</v>
+        <v>0.5673521250123125</v>
       </c>
       <c r="C2">
-        <v>0.5049582281476126</v>
+        <v>0.4986244270970379</v>
       </c>
       <c r="D2">
-        <v>0.3156494834200375</v>
+        <v>0.304258046093947</v>
       </c>
       <c r="E2">
-        <v>0.5442048121667445</v>
+        <v>0.5362772653532303</v>
       </c>
       <c r="F2">
-        <v>0.2094514868255875</v>
+        <v>0.204659893930405</v>
       </c>
       <c r="G2">
-        <v>2.196451551568347</v>
+        <v>3.424205974944159</v>
       </c>
       <c r="H2">
-        <v>0.3549179072008298</v>
+        <v>0.3434418372022693</v>
       </c>
       <c r="I2">
-        <v>0.8773018778815095</v>
+        <v>0.8537734718010417</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8081876453848597</v>
+        <v>0.8335627481414022</v>
       </c>
       <c r="C3">
-        <v>0.6063840226192748</v>
+        <v>0.6124720585061418</v>
       </c>
       <c r="D3">
-        <v>0.6040685075444701</v>
+        <v>0.6914313951989252</v>
       </c>
       <c r="E3">
-        <v>0.7474359587083419</v>
+        <v>0.8294893176795775</v>
       </c>
       <c r="F3">
-        <v>0.2251722165486058</v>
+        <v>0.2146190916750427</v>
       </c>
       <c r="G3">
-        <v>4.831045015350133</v>
+        <v>9.083806463895094</v>
       </c>
       <c r="H3">
-        <v>0.4176115527048767</v>
+        <v>0.4115799289697911</v>
       </c>
       <c r="I3">
-        <v>1.02008327240884</v>
+        <v>1.017681006657749</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.126506566211152</v>
+        <v>0.8416687413508381</v>
       </c>
       <c r="C4">
-        <v>0.5737834436068727</v>
+        <v>0.6205538024808437</v>
       </c>
       <c r="D4">
-        <v>2.592238575455366</v>
+        <v>0.6939001307391072</v>
       </c>
       <c r="E4">
-        <v>2.301130462269741</v>
+        <v>0.8244337666923813</v>
       </c>
       <c r="F4">
-        <v>0.2167307735831896</v>
+        <v>0.2135702169258318</v>
       </c>
       <c r="G4">
-        <v>28.52175197364359</v>
+        <v>9.333149134538456</v>
       </c>
       <c r="H4">
-        <v>0.3840028873953366</v>
+        <v>0.4181443610207467</v>
       </c>
       <c r="I4">
-        <v>1.011363615157137</v>
+        <v>1.033385316170798</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.187908763415526</v>
+        <v>1.308718891269988</v>
       </c>
       <c r="C5">
-        <v>0.6670552034334702</v>
+        <v>0.671603222416766</v>
       </c>
       <c r="D5">
-        <v>1.844805110630706</v>
+        <v>3.046384463682139</v>
       </c>
       <c r="E5">
-        <v>1.552985521654411</v>
+        <v>2.327760746791017</v>
       </c>
       <c r="F5">
-        <v>0.2221063583972489</v>
+        <v>0.2194795413627211</v>
       </c>
       <c r="G5">
-        <v>17.18155113109569</v>
+        <v>60.45560296373032</v>
       </c>
       <c r="H5">
-        <v>0.4287669184754673</v>
+        <v>0.4440268273518535</v>
       </c>
       <c r="I5">
-        <v>1.173445906374903</v>
+        <v>1.168058536380768</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.243186337533633</v>
+        <v>1.311769756366188</v>
       </c>
       <c r="C6">
-        <v>0.650806293156708</v>
+        <v>0.5720187219889161</v>
       </c>
       <c r="D6">
-        <v>2.023794843498061</v>
+        <v>4.817447399474116</v>
       </c>
       <c r="E6">
-        <v>1.627909495460739</v>
+        <v>3.672479393654581</v>
       </c>
       <c r="F6">
-        <v>0.2238284490454913</v>
+        <v>0.2142132579565945</v>
       </c>
       <c r="G6">
-        <v>19.30213207393202</v>
+        <v>91.61316232121442</v>
       </c>
       <c r="H6">
-        <v>0.4365018404735111</v>
+        <v>0.3897625097217622</v>
       </c>
       <c r="I6">
-        <v>1.161036907532579</v>
+        <v>0.9893808166249672</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.611972106168202</v>
+        <v>1.367040328565438</v>
       </c>
       <c r="C7">
-        <v>0.8378860417491889</v>
+        <v>0.6576526641797767</v>
       </c>
       <c r="D7">
-        <v>2.193911830579983</v>
+        <v>3.470340659108905</v>
       </c>
       <c r="E7">
-        <v>1.361011038705318</v>
+        <v>2.538579577056555</v>
       </c>
       <c r="F7">
-        <v>0.2387880298390697</v>
+        <v>0.2205383235134294</v>
       </c>
       <c r="G7">
-        <v>16.77751691119271</v>
+        <v>95.32630144233451</v>
       </c>
       <c r="H7">
-        <v>0.494613829170233</v>
+        <v>0.4297283150226255</v>
       </c>
       <c r="I7">
-        <v>1.640857146868123</v>
+        <v>1.127202426919009</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2.297252780636199</v>
+        <v>2.296709150532998</v>
       </c>
       <c r="C8">
-        <v>1.16159493721942</v>
+        <v>0.8882164627106299</v>
       </c>
       <c r="D8">
-        <v>3.063284264927709</v>
+        <v>6.448539610303301</v>
       </c>
       <c r="E8">
-        <v>1.333455460691342</v>
+        <v>2.807730185951837</v>
       </c>
       <c r="F8">
-        <v>0.3171523184750582</v>
+        <v>0.2126180003926161</v>
       </c>
       <c r="G8">
-        <v>20.19690933471792</v>
+        <v>117.4034880978905</v>
       </c>
       <c r="H8">
-        <v>0.7133685167441106</v>
+        <v>0.4843901589443598</v>
       </c>
       <c r="I8">
-        <v>2.189431140222986</v>
+        <v>1.791202358672039</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2.937753049473157</v>
+        <v>3.563375856854013</v>
       </c>
       <c r="C9">
-        <v>0.9376483191630398</v>
+        <v>0.9826911287332893</v>
       </c>
       <c r="D9">
-        <v>5.18302473414755</v>
+        <v>9.440565341956152</v>
       </c>
       <c r="E9">
-        <v>1.764281968859517</v>
+        <v>2.649331903564872</v>
       </c>
       <c r="F9">
-        <v>0.2297703165662453</v>
+        <v>0.2201973903871716</v>
       </c>
       <c r="G9">
-        <v>35.21248014972411</v>
+        <v>162.0408518221075</v>
       </c>
       <c r="H9">
-        <v>0.5191271598155864</v>
+        <v>0.501584620837864</v>
       </c>
       <c r="I9">
-        <v>2.629460930059344</v>
+        <v>2.70854980997082</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>3.108082487074975</v>
+        <v>3.840829591153802</v>
       </c>
       <c r="C10">
-        <v>0.9881537941484606</v>
+        <v>0.9694987832638501</v>
       </c>
       <c r="D10">
-        <v>5.49273820145364</v>
+        <v>10.24774701147371</v>
       </c>
       <c r="E10">
-        <v>1.767243380539386</v>
+        <v>2.66810770128316</v>
       </c>
       <c r="F10">
-        <v>0.226792636334849</v>
+        <v>0.2141694595976465</v>
       </c>
       <c r="G10">
-        <v>36.68000948544248</v>
+        <v>181.3513094128286</v>
       </c>
       <c r="H10">
-        <v>0.5103807923053635</v>
+        <v>0.4690264927971053</v>
       </c>
       <c r="I10">
-        <v>2.865274881223329</v>
+        <v>3.184788322170584</v>
       </c>
     </row>
   </sheetData>
